--- a/Recycled Parts NTRs stats.xlsx
+++ b/Recycled Parts NTRs stats.xlsx
@@ -16,6 +16,7 @@
     <sheet name="VS Kerbal Atomics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="78">
   <si>
     <t>FTmN</t>
   </si>
@@ -156,9 +157,6 @@
     <t>Improved Nuclear Propulsion</t>
   </si>
   <si>
-    <t>High Energy Nuclear Power</t>
-  </si>
-  <si>
     <t>Kerbal Atomics</t>
   </si>
   <si>
@@ -186,9 +184,6 @@
     <t>LV-N 'Par Two'</t>
   </si>
   <si>
-    <t>FTmN SC-700</t>
-  </si>
-  <si>
     <t>FTmN SC-100</t>
   </si>
   <si>
@@ -256,6 +251,15 @@
   </si>
   <si>
     <t>LV-N NERV</t>
+  </si>
+  <si>
+    <t>FTmN CCGC-700</t>
+  </si>
+  <si>
+    <t>Experimental Nuclear Propulsion</t>
+  </si>
+  <si>
+    <t>High Energy Nuclear Propulsion</t>
   </si>
 </sst>
 </file>
@@ -263,9 +267,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0\ &quot;kN&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00\ &quot;t&quot;"/>
-    <numFmt numFmtId="170" formatCode="0\ &quot;s&quot;"/>
+    <numFmt numFmtId="164" formatCode="0\ &quot;kN&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00\ &quot;t&quot;"/>
+    <numFmt numFmtId="166" formatCode="0\ &quot;s&quot;"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -405,37 +409,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1"/>
@@ -724,531 +728,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="10">
         <v>1.58</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>3.6</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="10">
         <v>3.1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>160</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>7</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>400</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="10">
         <v>5.6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>280</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>11</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>700</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="15">
         <v>0.9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="F10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="15">
         <v>0.9</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>45</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="10">
         <v>2.5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>120</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8">
+      <c r="L13" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8">
         <v>300</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="10">
         <v>1.75</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>84</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="F16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>3.9</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>200</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="L16" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10">
         <v>3.75</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>180</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <v>7.7</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>450</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="L18" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8">
         <v>1125</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="K19" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="10">
         <v>8</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>400</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <v>13</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>1000</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="K21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="10"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="15">
         <v>5.75</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>130</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="F24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="15">
+      <c r="H24" s="15">
         <v>5.75</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>360</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="L24" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="15">
         <v>11</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>240</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="F26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="15">
+      <c r="H26" s="15">
         <v>11</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>720</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="L26" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1263,7 +1311,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1331,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1291,7 +1339,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="I1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -1300,11 +1348,11 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -1313,13 +1361,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>7</v>
@@ -1328,10 +1376,10 @@
         <v>8</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N2" s="6"/>
     </row>
@@ -1349,7 +1397,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -1370,7 +1418,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="16">
         <v>0.9</v>
@@ -1382,10 +1430,10 @@
         <v>800</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J5" s="10">
         <v>2.36</v>
@@ -1397,7 +1445,7 @@
         <v>600</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1411,7 +1459,7 @@
         <v>900</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1419,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="15">
         <v>3.6</v>
@@ -1431,7 +1479,7 @@
         <v>800</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="2"/>
@@ -1445,7 +1493,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="13"/>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J8" s="10">
         <v>0.35</v>
@@ -1457,7 +1505,7 @@
         <v>935</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1465,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="16">
         <v>3.9</v>
@@ -1477,7 +1525,7 @@
         <v>710</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1496,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="15">
         <v>7</v>
@@ -1508,7 +1556,7 @@
         <v>960</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1520,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="16">
         <v>5.75</v>
@@ -1532,7 +1580,7 @@
         <v>800</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1548,7 +1596,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="16">
         <v>11</v>
@@ -1560,7 +1608,7 @@
         <v>800</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1572,7 +1620,7 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="21"/>
@@ -1592,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="16">
         <v>2.5</v>
@@ -1604,10 +1652,10 @@
         <v>880</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J18" s="10">
         <v>1.75</v>
@@ -1619,7 +1667,7 @@
         <v>750</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1658,7 +1706,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="16">
         <v>7.7</v>
@@ -1670,10 +1718,10 @@
         <v>1024</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J21" s="10">
         <v>2.2999999999999998</v>
@@ -1685,7 +1733,7 @@
         <v>950</v>
       </c>
       <c r="M21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1732,7 +1780,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="13"/>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J24" s="10">
         <v>10.5</v>
@@ -1744,7 +1792,7 @@
         <v>925</v>
       </c>
       <c r="M24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1779,7 +1827,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J27" s="10">
         <v>24.34</v>
@@ -1791,7 +1839,7 @@
         <v>875</v>
       </c>
       <c r="M27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1812,7 +1860,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="21"/>
@@ -1832,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D31" s="15">
         <v>11</v>
@@ -1844,10 +1892,10 @@
         <v>1500</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J31" s="10">
         <v>11</v>
@@ -1859,7 +1907,7 @@
         <v>1625</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1878,7 +1926,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="16">
         <v>13</v>
@@ -1890,10 +1938,10 @@
         <v>1800</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J33" s="10">
         <v>12</v>
@@ -1905,7 +1953,7 @@
         <v>1250</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -1917,7 +1965,7 @@
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35" s="13"/>
       <c r="I35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J35" s="10">
         <v>14.63</v>
@@ -1929,7 +1977,7 @@
         <v>2850</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
